--- a/uploads/base_residuos_teste_com_previsao.xlsx
+++ b/uploads/base_residuos_teste_com_previsao.xlsx
@@ -486,9 +486,7 @@
       <c r="D2" t="n">
         <v>518.5</v>
       </c>
-      <c r="E2" t="n">
-        <v>4355.4</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -507,9 +505,7 @@
       <c r="D3" t="n">
         <v>720</v>
       </c>
-      <c r="E3" t="n">
-        <v>5760</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -528,9 +524,7 @@
       <c r="D4" t="n">
         <v>720</v>
       </c>
-      <c r="E4" t="n">
-        <v>7272</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -549,9 +543,7 @@
       <c r="D5" t="n">
         <v>550.4</v>
       </c>
-      <c r="E5" t="n">
-        <v>6604.8</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -570,9 +562,7 @@
       <c r="D6" t="n">
         <v>404.2</v>
       </c>
-      <c r="E6" t="n">
-        <v>4527.04</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -591,9 +581,7 @@
       <c r="D7" t="n">
         <v>670.6</v>
       </c>
-      <c r="E7" t="n">
-        <v>6638.94</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -612,9 +600,7 @@
       <c r="D8" t="n">
         <v>568.6</v>
       </c>
-      <c r="E8" t="n">
-        <v>5458.56</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -633,9 +619,7 @@
       <c r="D9" t="n">
         <v>720</v>
       </c>
-      <c r="E9" t="n">
-        <v>5400</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -654,9 +638,7 @@
       <c r="D10" t="n">
         <v>502.2</v>
       </c>
-      <c r="E10" t="n">
-        <v>5524.2</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -675,9 +657,7 @@
       <c r="D11" t="n">
         <v>530.9</v>
       </c>
-      <c r="E11" t="n">
-        <v>6158.44</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -696,9 +676,7 @@
       <c r="D12" t="n">
         <v>696.6</v>
       </c>
-      <c r="E12" t="n">
-        <v>6339.06</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -717,9 +695,7 @@
       <c r="D13" t="n">
         <v>571.7</v>
       </c>
-      <c r="E13" t="n">
-        <v>4630.77</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
